--- a/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,136 +40,154 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>however</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>light</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>item</t>
@@ -178,141 +196,132 @@
     <t>money</t>
   </si>
   <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>working</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>never</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -322,94 +331,109 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>elf</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>helicopter</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>lego</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>hit</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>wait</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>ages</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>game</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>well</t>
   </si>
   <si>
     <t>positive</t>
@@ -770,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9527027027027027</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -857,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K3">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -881,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -889,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9436619718309859</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -907,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K4">
-        <v>0.7076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -931,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -939,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9318181818181818</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -957,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K5">
-        <v>0.5974025974025974</v>
+        <v>0.65625</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -981,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9223300970873787</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1007,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K6">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1031,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1039,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8947368421052632</v>
+        <v>0.9086021505376344</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1081,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1089,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8857142857142857</v>
+        <v>0.9077669902912622</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1107,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K8">
-        <v>0.5268817204301075</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1131,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1139,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8763440860215054</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1157,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9">
-        <v>0.5094339622641509</v>
-      </c>
-      <c r="L9">
-        <v>27</v>
-      </c>
-      <c r="M9">
-        <v>27</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1189,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1207,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K10">
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1231,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1239,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8225806451612904</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1257,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1281,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1289,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8043478260869565</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
         <v>37</v>
@@ -1307,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K12">
-        <v>0.4680851063829787</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1339,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K13">
-        <v>0.4117647058823529</v>
+        <v>0.4356846473029046</v>
       </c>
       <c r="L13">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="M13">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1381,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>410</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,10 +1416,10 @@
         <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1407,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K14">
-        <v>0.4045643153526971</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="L14">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="M14">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1431,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>287</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1463,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7592592592592593</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15">
-        <v>0.3792048929663608</v>
+        <v>0.3951149425287356</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1478,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>203</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1489,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7407407407407407</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1507,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K16">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1539,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1557,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17">
-        <v>0.3454545454545455</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1581,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1589,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6825396825396826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,31 +1631,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18">
-        <v>0.2933442892358258</v>
+        <v>0.3</v>
       </c>
       <c r="L18">
-        <v>357</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>860</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1639,13 +1663,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6557377049180327</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1657,31 +1681,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K19">
-        <v>0.2710843373493976</v>
+        <v>0.2974527526705013</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>121</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1710,16 +1734,16 @@
         <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20">
-        <v>0.2575757575757576</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1731,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1739,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,10 +1784,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K21">
-        <v>0.2318840579710145</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21">
         <v>16</v>
@@ -1781,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,13 +1813,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5952380952380952</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,16 +1834,16 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K22">
-        <v>0.2311977715877437</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="L22">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1831,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>276</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1839,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1857,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K23">
-        <v>0.2285714285714286</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1881,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>54</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1889,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5545023696682464</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C24">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1907,31 +1931,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K24">
-        <v>0.2197802197802198</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1939,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5357142857142857</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1957,31 +1981,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K25">
-        <v>0.1982758620689655</v>
+        <v>0.233983286908078</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>93</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1989,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5344827586206896</v>
+        <v>0.6</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2007,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K26">
-        <v>0.1904761904761905</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2031,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>153</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2039,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5185185185185185</v>
+        <v>0.5734597156398105</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2057,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K27">
-        <v>0.1675324675324675</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L27">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2078,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1282</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,13 +2113,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5111111111111111</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2107,31 +2131,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K28">
-        <v>0.1373239436619718</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="N28">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>245</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2139,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2157,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K29">
-        <v>0.1367221735319895</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="L29">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2181,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>985</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2189,13 +2213,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4898550724637681</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2207,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K30">
-        <v>0.09740259740259741</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2231,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2239,13 +2263,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4742268041237113</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2257,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K31">
-        <v>0.05882352941176471</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>304</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2289,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.462962962962963</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2307,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K32">
-        <v>0.0535475234270415</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="N32">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>707</v>
+        <v>973</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2339,13 +2363,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4583333333333333</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2357,31 +2381,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K33">
-        <v>0.05093833780160858</v>
+        <v>0.1328125</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>354</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2389,13 +2413,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4523809523809524</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2407,31 +2431,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K34">
-        <v>0.02867383512544803</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="O34">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>542</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4356435643564356</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C35">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2457,7 +2481,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35">
+        <v>0.08064516129032258</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>0.95</v>
+      </c>
+      <c r="O35">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2513,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4145569620253164</v>
+        <v>0.4375</v>
       </c>
       <c r="C36">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,7 +2531,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>185</v>
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36">
+        <v>0.07258064516129033</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>29</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2491,13 +2563,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4096385542168675</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2509,7 +2581,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>49</v>
+        <v>178</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37">
+        <v>0.06182795698924731</v>
+      </c>
+      <c r="L37">
+        <v>46</v>
+      </c>
+      <c r="M37">
+        <v>54</v>
+      </c>
+      <c r="N37">
+        <v>0.85</v>
+      </c>
+      <c r="O37">
+        <v>0.15</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2517,13 +2613,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4033613445378151</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2535,7 +2631,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38">
+        <v>0.046875</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>0.79</v>
+      </c>
+      <c r="O38">
+        <v>0.21</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2543,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3928571428571428</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2561,7 +2681,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>0.71</v>
+      </c>
+      <c r="O39">
+        <v>0.29</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2569,13 +2713,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3918918918918919</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2587,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2595,13 +2739,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.391304347826087</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2613,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2621,13 +2765,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3902439024390244</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2639,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>50</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2647,13 +2791,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3736263736263736</v>
+        <v>0.3949579831932773</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2665,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2673,13 +2817,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.359375</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2691,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2699,13 +2843,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3392857142857143</v>
+        <v>0.359375</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2717,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2725,13 +2869,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3258426966292135</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2743,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2751,13 +2895,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2934782608695652</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C47">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2769,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>195</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2777,13 +2921,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2753164556962026</v>
+        <v>0.305</v>
       </c>
       <c r="C48">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2795,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>229</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2803,13 +2947,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2678571428571428</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2821,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2829,13 +2973,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2564102564102564</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2847,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2855,13 +2999,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2514619883040936</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2873,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2881,13 +3025,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2899,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2907,13 +3051,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2421875</v>
+        <v>0.2644927536231884</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2925,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2933,13 +3077,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2380952380952381</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2951,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>48</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2959,25 +3103,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2349726775956284</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="C55">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2985,13 +3129,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2297297297297297</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3003,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3011,13 +3155,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2093023255813954</v>
+        <v>0.2158590308370044</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3029,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>68</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3037,13 +3181,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2051282051282051</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3055,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3063,25 +3207,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1944444444444444</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3089,13 +3233,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1899109792284867</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="C60">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3107,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>546</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3115,13 +3259,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1824324324324324</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3133,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3141,13 +3285,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1806167400881057</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C62">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3159,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>372</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3167,13 +3311,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1657142857142857</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3185,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>146</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3193,13 +3337,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1656050955414013</v>
+        <v>0.1839762611275964</v>
       </c>
       <c r="C64">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3211,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>131</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3219,25 +3363,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1654676258992806</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="C65">
         <v>23</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3245,13 +3389,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1653543307086614</v>
+        <v>0.171875</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3263,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3271,25 +3415,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1641025641025641</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>163</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3297,13 +3441,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1623931623931624</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3315,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3323,13 +3467,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1514195583596215</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C69">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3341,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>269</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3349,13 +3493,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1495327102803738</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3367,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>182</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3375,13 +3519,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.140625</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C71">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3393,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3401,25 +3545,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1329479768786127</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C72">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>300</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3427,25 +3571,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.132183908045977</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E73">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>151</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3453,25 +3597,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1100917431192661</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C74">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>582</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3479,25 +3623,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1071428571428571</v>
+        <v>0.1242774566473988</v>
       </c>
       <c r="C75">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3505,25 +3649,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1043165467625899</v>
+        <v>0.12</v>
       </c>
       <c r="C76">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E76">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>249</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3531,25 +3675,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1021505376344086</v>
+        <v>0.1085626911314985</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>167</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3557,25 +3701,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09473684210526316</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>172</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3583,25 +3727,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08970099667774087</v>
+        <v>0.09976798143851508</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>274</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3609,25 +3753,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08781869688385269</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C80">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>322</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3635,7 +3779,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.08421052631578947</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C81">
         <v>16</v>
@@ -3653,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3661,25 +3805,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.08064516129032258</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C82">
         <v>20</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3687,25 +3831,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.08064516129032258</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3713,25 +3857,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.07476635514018691</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="C84">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D84">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E84">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>396</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3739,25 +3883,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.06976744186046512</v>
+        <v>0.07925407925407925</v>
       </c>
       <c r="C85">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D85">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E85">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F85">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3765,25 +3909,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.06413301662707839</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="C86">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>394</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3791,25 +3935,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.05639097744360902</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E87">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F87">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3817,25 +3961,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05289256198347107</v>
+        <v>0.07169811320754717</v>
       </c>
       <c r="C88">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E88">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F88">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>573</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3843,13 +3987,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.04174950298210735</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89">
         <v>21</v>
-      </c>
-      <c r="D89">
-        <v>22</v>
       </c>
       <c r="E89">
         <v>0.05</v>
@@ -3861,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>482</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3869,25 +4013,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.03904555314533623</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>443</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3895,25 +4039,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.03792667509481669</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="C91">
         <v>30</v>
       </c>
       <c r="D91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E91">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F91">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>761</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3921,25 +4065,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0228898426323319</v>
+        <v>0.04297994269340974</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="F92">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>683</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3947,25 +4091,103 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.02180232558139535</v>
+        <v>0.04068522483940043</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93">
+        <v>21</v>
+      </c>
+      <c r="E93">
+        <v>0.1</v>
+      </c>
+      <c r="F93">
+        <v>0.9</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.03792415169660679</v>
+      </c>
+      <c r="C94">
         <v>19</v>
       </c>
-      <c r="E93">
-        <v>0.21</v>
-      </c>
-      <c r="F93">
-        <v>0.79</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>673</v>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94">
+        <v>0.14</v>
+      </c>
+      <c r="F94">
+        <v>0.86</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03747072599531616</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>0.11</v>
+      </c>
+      <c r="F95">
+        <v>0.89</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.03417721518987342</v>
+      </c>
+      <c r="C96">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>31</v>
+      </c>
+      <c r="E96">
+        <v>0.13</v>
+      </c>
+      <c r="F96">
+        <v>0.87</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
